--- a/Chat_DB_Structure.xlsx
+++ b/Chat_DB_Structure.xlsx
@@ -710,8 +710,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -721,7 +721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5191576" y="619380"/>
-          <a:ext cx="2009324" cy="1656840"/>
+          <a:ext cx="2009324" cy="2019045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,6 +809,38 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>gName                      varchar(100)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>gImage                      varchar(255)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>gDescription            varchar(255)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
@@ -2570,58 +2602,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>43072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104955</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248025" y="2138572"/>
-          <a:ext cx="1943550" cy="1966883"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2692,6 +2672,58 @@
         <a:xfrm>
           <a:off x="7200900" y="1447800"/>
           <a:ext cx="1972005" cy="2648085"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="2138572"/>
+          <a:ext cx="1943550" cy="1966883"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3009,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
